--- a/experiments/dbscan-ajk/sbert/0.1/prediction.xlsx
+++ b/experiments/dbscan-ajk/sbert/0.1/prediction.xlsx
@@ -468,181 +468,181 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
+          <t>AE Locked. Metering disabled</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Accelerator is Over Range</t>
+          <t>APAS has been enabled</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
+          <t>API Automatic Return Home</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
+          <t>API Automatic Takeoff</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
+          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Cannot find subject</t>
+          <t>Accelerator is Over Range</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
+          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Paused</t>
+          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
+          <t>ActiveTrack Flight Ended: Cannot find subject</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AE Locked. Metering disabled</t>
+          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
+          <t>ActiveTrack Flight Paused</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
+          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
+          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
+          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
+          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Aircraft battery level low. Return to home promptly</t>
+          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Aircraft close to Home Point. go home shifts to landing.</t>
+          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -658,307 +658,307 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
+          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
+          <t>Aircraft GPS signal too weak. Home Point not updated</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Aircraft flight control locked</t>
+          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller A</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller B</t>
+          <t>Aircraft battery level low. Return to home promptly</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
+          <t>Aircraft close to Home Point. go home shifts to landing.</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Aircraft flight control unlocked</t>
+          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
+          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak. Home Point not updated</t>
+          <t>Aircraft flight control locked</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Aircraft flight control obtained by remote controller A</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
+          <t>Aircraft flight control obtained by remote controller B</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
+          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Fly with caution</t>
+          <t>Aircraft flight control unlocked</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
+          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
+          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
+          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
+          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Aircraft is entering a restricted area</t>
+          <t>Aircraft in high interference environment. Fly with caution</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Aircraft is flying back to the start point</t>
+          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the starting point</t>
+          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
+          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
+          <t>Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
+          <t>Aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
+          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
+          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Aircraft is now following you.</t>
+          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft is now following you.</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -988,277 +988,277 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Aircraft is too far away</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
+          <t>Aircraft is returning to the starting point</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
+          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Aircraft out of Range</t>
+          <t>Aircraft is too far away</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
+          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient. Fly with caution</t>
+          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
+          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated. Automatically returning to home</t>
+          <t>Aircraft out of Range</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
+          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Aircraft settings updated to comply with national regulations</t>
+          <t>Aircraft power insufficient. Fly with caution</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error. Restart aircraft</t>
+          <t>Aircraft processor overheated. Automatically returning to home</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
+          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Aircraft settings updated to comply with national regulations</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Aircraft will automatically descend in nnn</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
+          <t>Aircraft takeoff altitude error. Restart aircraft</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
+          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
+          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
+          <t>Aircraft will automatically descend in nnn</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Altitude Zone nnn</t>
+          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak.</t>
+          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
+          <t>Altitude Zone nnn</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak</t>
+          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Ambient Light is too weak.</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Ambient Light too Weak</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1268,117 +1268,117 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
+          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
+          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Fly with caution</t>
+          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>APAS has been enabled</t>
+          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>API Automatic Return Home</t>
+          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>API Automatic Takeoff</t>
+          <t>Another aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
+          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
+          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Arrived at destination</t>
+          <t>Arrived at End Point</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Arrived at End Point</t>
+          <t>Arrived at Start Point. Starting Waypoint Mission</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Arrived at Start Point. Starting Waypoint Mission</t>
+          <t>Arrived at destination</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>At least two Waypoints are needed</t>
+          <t>At Least Two Waypoints Required</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>At Least Two Waypoints Required</t>
+          <t>At least two Waypoints are needed</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1508,1057 +1508,1057 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning.</t>
+          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning.</t>
+          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Responding</t>
+          <t>Barometer Dead in Air</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Working.</t>
+          <t>Barometer initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Battery Signal Error. Check battery connection.</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Battery Voltage Difference too large. Check Battery Status</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Battery cell broken, please replace the battery</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Barometer Dead in Air</t>
+          <t>Battery cells undervoltage</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Barometer initialization failed. Restart aircraft</t>
+          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
+          <t>Battery error. Aircraft returning to home automatically</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Battery cell broken, please replace the battery</t>
+          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Battery cells undervoltage</t>
+          <t>Battery level low. Charge battery</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
+          <t>Battery nnn requires maintenance</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Battery error. Aircraft returning to home automatically</t>
+          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
+          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Battery level low. Charge battery</t>
+          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Battery nnn requires maintenance</t>
+          <t>Battery power low. Check battery status and charge or warm up battery</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
+          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
+          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
+          <t>Battery temperature too low. Fly with caution</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Battery power low. Check battery status and charge or warm up battery</t>
+          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
+          <t>Battery: Connection Error</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Battery Signal Error. Check battery connection.</t>
+          <t>Battery: Low Voltage Protection</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
+          <t>Battery: Overcurrent During Discharge</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
+          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Battery temperature too low. Fly with caution</t>
+          <t>Braking now! Return sticks to midpoints first.</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Battery Voltage Difference too large. Check Battery Status</t>
+          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
+          <t>Cache Space Full</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Battery: Connection Error</t>
+          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Battery: Low Voltage Protection</t>
+          <t>Calibration target not far away enough. Please calibrate using infinity</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Battery: Overcurrent During Discharge</t>
+          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
+          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Braking now! Return sticks to midpoints first.</t>
+          <t>Camera Settings ActiveTrack Optimized</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
+          <t>Camera Settings Adjusted</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Cache Space Full</t>
+          <t>Camera Settings Adjusted to ActiveTrack</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
+          <t>Camera busy, cannot enter playback</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Calibration target not far away enough. Please calibrate using infinity</t>
+          <t>Camera error. AI Spot-Check failed. Restart camera</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Camera busy, cannot enter playback</t>
+          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Camera error. AI Spot-Check failed. Restart camera</t>
+          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
+          <t>Camera storage full</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Cancel Landing Failed</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Cancel Return-to-Home Failed</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
+          <t>Cannot Enter TapFly Cannot fly in that direction</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Camera Settings ActiveTrack Optimized</t>
+          <t>Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted to ActiveTrack</t>
+          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>131</v>
+        <v>149</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted</t>
+          <t>Cannot Track Subject. Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Camera storage full</t>
+          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Cancel Landing Failed</t>
+          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Failed to cancel landing</t>
+          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Cancel Return-to-Home Failed</t>
+          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Failed to cancel Return to Home</t>
+          <t>Cannot enter the selected flight mode. Try again later.</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
+          <t>Cannot exit ActiveTrack</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
+          <t>Cannot send ActiveTrack command</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
+          <t>Cannot start Return to Home due to weak GPS signal</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Cannot Enter TapFly Cannot fly in that direction</t>
+          <t>Cannot start Self-Timer. Exposure time is too long</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Cannot enter the selected flight mode. Try again later.</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Cannot exit ActiveTrack</t>
+          <t>Cannot takeoff in a no-fly zone</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Cannot Identify Subject</t>
+          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Cannot send ActiveTrack command</t>
+          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Cannot start Return to Home due to weak GPS signal</t>
+          <t>Cannot track subject: Gimbal Tilt too Large</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Cannot start Self-Timer. Exposure time is too long</t>
+          <t>Cannot track subject: No image. Please retry</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
+          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
+          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Cannot takeoff in a no-fly zone</t>
+          <t>Capture Failed Cannot enter Pano mode</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
+          <t>Capture Failed Shooting interrupted</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
+          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Cannot Track Subject. Cannot Identify Subject</t>
+          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
+          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Cannot track subject: Gimbal Tilt too Large</t>
+          <t>Capture Failed. Shooting is currently not permitted</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Cannot track subject: No image. Please retry</t>
+          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
+          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
+          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Capture Failed Cannot enter Pano mode</t>
+          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Capture Failed Shooting interrupted</t>
+          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
+          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
+          <t>Command Failed</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
+          <t>Command Timeout</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Capture Failed. Shooting is currently not permitted</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
+          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
+          <t>Compass Error. Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
+          <t>Compass Error. Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>164</v>
+        <v>178</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
+          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Command Failed</t>
+          <t>Compass Error. Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Command Timeout</t>
+          <t>Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
+          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
+          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Compass data error. Please contact DJI Support</t>
+          <t>Compass Error. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
+          <t>Compass Interference. Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Compass Interference. Temp Max Altitude: nnn</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>170</v>
+        <v>183</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Compass direction is not the same with IMU</t>
+          <t>Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>171</v>
+        <v>184</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Compass Error. Compass direction is not the same with IMU</t>
+          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>171</v>
+        <v>185</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Compass error, calibration required</t>
+          <t>Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
+          <t>Compass error, calibration required</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Compass Error. Compass disconnected</t>
+          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass disconnected</t>
+          <t>Compass initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -2568,287 +2568,287 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Critical Low Battery</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Redundancy Switch</t>
+          <t>Critical low battery voltage</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Compass Error. Exit P-GPS Mode</t>
+          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Critical low battery. Aircraft landing automatically</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Compass initialization failed. Restart aircraft</t>
+          <t>Critical low battery. Aircraft returning to home</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude : 98ft</t>
+          <t>Critical low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude: nnn</t>
+          <t>Critical low battery. Return to home or land promptly</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Compass Redundancy Switch</t>
+          <t>Critical low battery. Unable to take off. Recharge promptly</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
+          <t>Critically Low Power. Aircraft Landing</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Critical Low Battery</t>
+          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Critical low battery voltage</t>
+          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>188</v>
+        <v>198</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
+          <t>Critically Low Voltage. Aircraft will land</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft landing automatically</t>
+          <t>Critically low power. Aircraft is landing</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft returning to home</t>
+          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Critical low battery. Recharge promptly</t>
+          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Critical low battery. Return to home or land promptly</t>
+          <t>Current elevation above nnn. Fly with caution</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Critical low battery. Unable to take off. Recharge promptly</t>
+          <t>Data Recorder File Index is 12.</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Critically low power. Aircraft is landing</t>
+          <t>Data Recorder File Index is 13.</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing</t>
+          <t>Data Recorder File Index is 15.</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
+          <t>Data Recorder File Index is 17.</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
+          <t>Data Recorder File Index is 18.</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
+          <t>Data Recorder File Index is 19.</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Critically Low Voltage. Aircraft will land</t>
+          <t>Data Recorder File Index is 2.</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
+          <t>Data Recorder File Index is 21.</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Current elevation above nnn. Fly with caution</t>
+          <t>Data Recorder File Index is 29.</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
+          <t>Data Recorder File Index is 3.</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 12.</t>
+          <t>Data Recorder File Index is 30.</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 13.</t>
+          <t>Data Recorder File Index is 4.</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 15.</t>
+          <t>Data Recorder File Index is 45.</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 17.</t>
+          <t>Data Recorder File Index is 46.</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 18.</t>
+          <t>Data Recorder File Index is 5.</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 19.</t>
+          <t>Data Recorder File Index is 57.</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 2.</t>
+          <t>Data Recorder File Index is 65.</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 21.</t>
+          <t>Data Recorder File Index is 7.</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 29.</t>
+          <t>Data Recorder File Index is 8.</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -2938,167 +2938,167 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 3.</t>
+          <t>Descending. Exited Visual Avoidance System</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 30.</t>
+          <t>Detecting subject</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 4.</t>
+          <t>Disable SD card read and write protection or change card</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 45.</t>
+          <t>Distance limit enabled. Fly safely</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 46.</t>
+          <t>Downlink Lost.</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 5.</t>
+          <t>Downlink Restored (after 0m 0.9s).</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 57.</t>
+          <t>Downlink Restored (after 0m 1.1s).</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 65.</t>
+          <t>Downlink Restored (after 0m 1.2s).</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 7.</t>
+          <t>Downlink Restored (after 0m 1.4s).</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 8.</t>
+          <t>Downlink Restored (after 0m 1.5s).</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Descending. Exited Visual Avoidance System</t>
+          <t>Downlink Restored (after 0m 1.6s).</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Detecting subject</t>
+          <t>Downlink Restored (after 0m 1.7s).</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Disable SD card read and write protection or change card</t>
+          <t>Downlink Restored (after 0m 11.3s).</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Distance limit enabled. Fly safely</t>
+          <t>Downlink Restored (after 0m 11s).</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds</t>
+          <t>Downlink Restored (after 0m 1s).</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Downlink Lost.</t>
+          <t>Downlink Restored (after 0m 2.2s).</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 0.9s).</t>
+          <t>Downlink Restored (after 0m 2.3s).</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.1s).</t>
+          <t>Downlink Restored (after 0m 2.9s).</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.2s).</t>
+          <t>Downlink Restored (after 0m 5.6s).</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.4s).</t>
+          <t>Downlink Restored (after 0m 5.8s).</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -3138,761 +3138,761 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.5s).</t>
+          <t>Downlink data connection lost for nnn seconds</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.6s).</t>
+          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>210</v>
+        <v>94</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.7s).</t>
+          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11.3s).</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11s).</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>210</v>
+        <v>92</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1s).</t>
+          <t>Downward infrared sensor failure. Land as soon as possible</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.2s).</t>
+          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.3s).</t>
+          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.9s).</t>
+          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.6s).</t>
+          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.8s).</t>
+          <t>Drone is Vibrating</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
+          <t>During Smart Track, you can control lens zoom within a certain limit</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>EMMC is full</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Downward infrared sensor failure. Land as soon as possible</t>
+          <t>Ensure control sticks are centered during takeoff</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
+          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Vision sensor error. Contact DJI Support for assistance</t>
+          <t>Executing waypoint mission</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
+          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Drone is Vibrating</t>
+          <t>Exited Cruise Control mode</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit</t>
+          <t>Exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>EMMC is full</t>
+          <t>Exited Visual Avoidance System.</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Ensure control sticks are centered during takeoff</t>
+          <t>Exiting GPS mode: Unknown Error</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
+          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
+          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
+          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
+          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Executing waypoint mission</t>
+          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
+          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Exited Cruise Control mode</t>
+          <t>Failed to cancel Return to Home</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>228</v>
+        <v>135</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Exited Hyperlapse mode</t>
+          <t>Failed to cancel landing</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>229</v>
+        <v>134</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Exited Visual Avoidance System.</t>
+          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Exiting GPS mode: Unknown Error</t>
+          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
+          <t>File system error. Change SD card</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Flight Mode Set to Attitude</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
+          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Flight control mode error, cannot start recording QuickShot</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
+          <t>Flight height too low</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
+          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>File system error. Change SD card</t>
+          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>240</v>
+        <v>169</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Forward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>241</v>
+        <v>93</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
+          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>241</v>
+        <v>94</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Flight control mode error, cannot start recording QuickShot</t>
+          <t>Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>242</v>
+        <v>93</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
+          <t>Forward Obstacle Sensing not Working.</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>243</v>
+        <v>93</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Flight height too low</t>
+          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Flight Mode Set to Attitude</t>
+          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>245</v>
+        <v>216</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
+          <t>GPS Position Mismatch.</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>248</v>
+        <v>263</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
+          <t>GPS module error. Restart aircraft</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>249</v>
+        <v>262</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Gimbal calibrating</t>
+          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>250</v>
+        <v>264</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
+          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
+          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>252</v>
+        <v>266</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
+          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>253</v>
+        <v>267</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Gimbal nnn pan axis endpoint reached</t>
+          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Gimbal nnn pitch axis endpoint reached</t>
+          <t>Gimbal Pitch Limit Reached.</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Gimbal nnn roll axis endpoint reached</t>
+          <t>Gimbal Pitch Reached Movement Limit</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Limit Reached.</t>
+          <t>Gimbal Recenter</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Reached Movement Limit</t>
+          <t>Gimbal Roll Limit Reached.</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Gimbal Recenter</t>
+          <t>Gimbal Yaw Limit Reached</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Gimbal Roll Limit Reached.</t>
+          <t>Gimbal calibrating</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
+          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Gimbal Yaw Limit Reached</t>
+          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>GPS module error. Restart aircraft</t>
+          <t>Gimbal nnn pan axis endpoint reached</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>GPS Position Mismatch.</t>
+          <t>Gimbal nnn pitch axis endpoint reached</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
+          <t>Gimbal nnn roll axis endpoint reached</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
+          <t>Ground Plain. Safe to Land.</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
+          <t>Gyroscope initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Ground Plain. Safe to Land.</t>
+          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed. Restart aircraft</t>
+          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="347">
@@ -3908,17 +3908,17 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
+          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>High wind velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -3928,77 +3928,77 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution.</t>
+          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Large Wind Velocity. Fly with caution.</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
+          <t>Home Point Recorded.</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
+          <t>Home Point Recorded. RTH Altitude : 30m.</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
+          <t>Home Point Recorded. Taking off.</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
+          <t>Home Point Updated.</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -4008,87 +4008,87 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Home Point Recorded.</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Home Point Recorded. RTH Altitude : 30m.</t>
+          <t>Home Point updated. RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Home Point Recorded. Taking off.</t>
+          <t>IMU attitude restricted. Ensure aircraft is level</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Home Point Updated.</t>
+          <t>IMU calibration required. Calibrate IMU</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Home Point updated. RTH altitude adjusted to nnn</t>
+          <t>IMU not calibrated. Calibrate IMU</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Image Transmission Recovered. Aircraft is returning home.</t>
+          <t>IMU warming up. Wait before taking off</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Image transmission signal lost</t>
+          <t>Image Transmission Recovered. Aircraft is returning home.</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
+          <t>Image transmission signal lost</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Impact detected. Restart aircraft</t>
+          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -4098,147 +4098,147 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>IMU attitude restricted. Ensure aircraft is level</t>
+          <t>Impact detected. Restart aircraft</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>IMU calibration required. Calibrate IMU</t>
+          <t>In Flight.</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>IMU not calibrated. Calibrate IMU</t>
+          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>IMU warming up. Wait before taking off</t>
+          <t>Insufficient SD card space. Change card or delete files</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>In Flight.</t>
+          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
+          <t>Landing Canceled.</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Insufficient SD card space. Change card or delete files</t>
+          <t>Landing Gear Lowered.</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>SD card full. Change card or delete files</t>
+          <t>Landing Gear Lowering.</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
+          <t>Landing Gear Paused.</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Landing Canceled.</t>
+          <t>Landing Gear Raised.</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Landing gear function restored</t>
+          <t>Landing Gear Raising.</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Landing Gear Lowered.</t>
+          <t>Landing Gear Raising. Home Point Recorded</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Landing Gear Lowering.</t>
+          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Landing gear function restored</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -4248,7 +4248,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -4258,411 +4258,411 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Landing.</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Landing Gear Paused.</t>
+          <t>Large Wind Velocity.</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Landing Gear Raised.</t>
+          <t>Large Wind Velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>297</v>
+        <v>273</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Landing Gear Raising.</t>
+          <t>Lens not connected</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Landing Gear Raising. Home Point Recorded</t>
+          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
+          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Landing.</t>
+          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Large Wind Velocity.</t>
+          <t>Loading database failed. Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Lens not connected</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
+          <t>Low Power. Aircraft is returning to the Home Point.</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>303</v>
+        <v>312</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
+          <t>Low Power. Returning home.</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>304</v>
+        <v>313</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
+          <t>Low battery voltage. Fly with caution</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Loading database failed. Geo-awareness function degraded</t>
+          <t>Low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Low battery. Return to home promptly</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Low battery voltage. Fly with caution</t>
+          <t>Low power, please replace the battery</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Low battery. Recharge promptly</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Low battery. Return to home promptly</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Low power, please replace the battery</t>
+          <t>Manned aircraft approaching. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Low Power. Aircraft is returning to the Home Point.</t>
+          <t>Manned aircraft detected nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Low Power. Returning home.</t>
+          <t>Manned aircraft too close. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
+          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Manned aircraft approaching. Fly at a safe altitude</t>
+          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Manned aircraft detected nearby. Fly with caution</t>
+          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Manned aircraft too close. Fly at a safe altitude</t>
+          <t>Maximum Flight Altitude Reached.</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
+          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Min Waypoint Distance: nnn</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
+          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
+          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
+          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
+          <t>Motor error. Check propellers and fly with caution</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached.</t>
+          <t>Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Min Waypoint Distance: nnn</t>
+          <t>Motor is Blocked</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
+          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
+          <t>Motor is idling (lost or missing propeller)</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Motor error. Check propellers and fly with caution</t>
+          <t>Motor nnn propeller detached or installed incorrectly</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Motor idle. Check whether propellers are installed</t>
+          <t>Motor nnn stalled. Land aircraft immediately</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Motor is Blocked</t>
+          <t>Motor or propeller error. Check the motors and propellers.</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
+          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="424">
@@ -4688,771 +4688,771 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Motor is idling (lost or missing propeller)</t>
+          <t>Motor unable to rotate. Check motor</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Motor nnn propeller detached or installed incorrectly</t>
+          <t>Motors Started.</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Motor nnn stalled. Land aircraft immediately</t>
+          <t>Navigation system error. Restart aircraft</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
+          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Motor or propeller error. Check the motors and propellers.</t>
+          <t>No GPS signal. Unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
+          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Motor unable to rotate. Check motor</t>
+          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Motors Started.</t>
+          <t>No SD card. Insert card</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Navigation system error. Restart aircraft</t>
+          <t>Not Allowed to change Aircraft Mode. If needed</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
+          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to hover. Fly with caution</t>
+          <t>Not Enough Force/ESC Error</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
+          <t>Object too close to laser rangefinder</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
+          <t>Object too far for laser rangefinder</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>No SD card. Insert card</t>
+          <t>Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed</t>
+          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>344</v>
+        <v>295</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
+          <t>Obstacle Avoidance disabled. Fly with caution</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Not Enough Force/ESC Error</t>
+          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>346</v>
+        <v>295</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Object too close to laser rangefinder</t>
+          <t>Obstacle Avoidance will be disabled in landing.</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Object too far for laser rangefinder</t>
+          <t>Obstacle Avoided. Revise Flight Route</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled.</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Fly with caution</t>
+          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance will be disabled in landing.</t>
+          <t>PalmControl in Process</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Obstacle Avoided. Revise Flight Route</t>
+          <t>Pano shooting completed. The sky part is filled automatically</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
+          <t>Pano successful</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
+          <t>Panorama Captured Successfully</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>PalmControl in Process</t>
+          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Pano shooting completed. The sky part is filled automatically</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Pano successful</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Panorama Captured Successfully</t>
+          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Precision Landing. Correcting Landing Position.</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
+          <t>Precision Landing. Locating Landing Point</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Precision Landing. Rectifying aircraft position.</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Propeller Fell Off</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Precision Landing. Correcting Landing Position.</t>
+          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Precision Landing. Rectifying aircraft position.</t>
+          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Precision Landing. Locating Landing Point</t>
+          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Propeller Fell Off</t>
+          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
+          <t>Propellers not installed</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
+          <t>Propulsion output has been limited to ensure battery health.</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>QuickShot has ended</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>RTH : Ascending to RTH altitude.</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>368</v>
+        <v>391</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Propellers not installed</t>
+          <t>RTH : Cruise.</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>369</v>
+        <v>392</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Propulsion output has been limited to ensure battery health.</t>
+          <t>RTH : Heading alignment.</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>370</v>
+        <v>393</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>QuickShot has ended</t>
+          <t>RTH : Preascending.</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>371</v>
+        <v>394</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Reaching maximum altitude...</t>
+          <t>RTH Altitude : 65FT.</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>372</v>
+        <v>395</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Recenter Gimbal Pan</t>
+          <t>RTH Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>373</v>
+        <v>395</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>374</v>
+        <v>396</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Rectifying aircraft position</t>
+          <t>RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>375</v>
+        <v>397</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Remote controller assisted takeoff initiated.</t>
+          <t>RTK Base Station Data Not Received</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>376</v>
+        <v>398</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Remote controller battery level low. Recharge promptly</t>
+          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>377</v>
+        <v>398</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Remote controller disconnected from aircraft</t>
+          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>378</v>
+        <v>399</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Reaching maximum altitude...</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
+          <t>Recenter Gimbal Pan</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Remote controller signal lost</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Remote controller signal weak. Adjust remote controller antennas</t>
+          <t>Rectifying aircraft position</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
+          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Remote ID functionality normal</t>
+          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Remote ID functionality normal</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Restart aircraft and DJI Fly</t>
+          <t>Remote controller assisted takeoff initiated.</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Returning to the Home Point</t>
+          <t>Remote controller battery level low. Recharge promptly</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 65FT</t>
+          <t>Remote controller disconnected from aircraft</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT</t>
+          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT.</t>
+          <t>Remote controller signal lost</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Right Dial Locked. Lightly press to adjust.</t>
+          <t>Remote controller signal weak. Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>RTH : Ascending to RTH altitude.</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>RTH : Cruise.</t>
+          <t>Restart aircraft and DJI Fly</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>RTH : Heading alignment.</t>
+          <t>Return-to-Home Altitude : 65FT</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>RTH : Preascending.</t>
+          <t>Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>RTH Altitude : 65FT.</t>
+          <t>Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT.</t>
+          <t>Returning to the Home Point</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
+          <t>Right Dial Locked. Lightly press to adjust.</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>RTH altitude adjusted to nnn</t>
+          <t>Running Flight Simulator. Restart aircraft to take off</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received</t>
+          <t>SD card full. Change card or delete files</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>398</v>
+        <v>290</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
+          <t>SD card malfunction. Change card</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
+          <t>SD card speed low. Change card</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Running Flight Simulator. Restart aircraft to take off</t>
+          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="503">
@@ -5468,291 +5468,291 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>SD card malfunction. Change card</t>
+          <t>Sensing system is blocked or too close to the obstacle.</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>SD card speed low. Change card</t>
+          <t>Set Flight Mode to GPS to fly safe</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
+          <t>Setting new Maximum Flight Altitude to nnn</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Sensing system is blocked or too close to the obstacle.</t>
+          <t>Setting new Return-To-Home altitude to nnn</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Set Flight Mode to GPS to fly safe</t>
+          <t>Signal Lost. Aircraft returning to Home Point</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Setting new Maximum Flight Altitude to nnn</t>
+          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Setting new Return-To-Home altitude to nnn</t>
+          <t>Sprayer turned ON</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Signal Lost. Aircraft returning to Home Point</t>
+          <t>Starting Smart Track</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
+          <t>Strong Aircraft Interference</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Sprayer turned ON</t>
+          <t>Strong Interference Detected. Be careful when flying long distances.</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Starting Smart Track</t>
+          <t>Strong Interference Now. Fly with caution.</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Strong Aircraft Interference</t>
+          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Strong Interference Detected. Be careful when flying long distances.</t>
+          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Strong Interference Now. Fly with caution.</t>
+          <t>Strong Interference. Fly with caution.</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
+          <t>Strong Remote Controller Interference</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
+          <t>Strong Remote Controller Interference.</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Strong Interference. Fly with caution.</t>
+          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference</t>
+          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference.</t>
+          <t>Strong wind. Fly with caution</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
+          <t>Strong wireless interference. Please fly with caution.</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Strong wind. Fly with caution</t>
+          <t>Subject lost. Reselect subject</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution.</t>
+          <t>Subject lost. Searching …</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Subject lost. Reselect subject</t>
+          <t>Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Subject lost. Searching …</t>
+          <t>Switched to A (Attitude)-mode</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Subject too Large. Move Away and retry</t>
+          <t>Switched to P (Positioning)-mode.</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Subject too Small. Get Closer and retry</t>
+          <t>Switched to S (Sport)-mode.</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Switched to A (Attitude)-mode</t>
+          <t>Switched to T (Tripod)-mode.</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="533">
@@ -5768,321 +5768,321 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Switched to P (Positioning)-mode.</t>
+          <t>Take off and retry this function.</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Switched to S (Sport)-mode.</t>
+          <t>Take off in P-Mode</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Switched to T (Tripod)-mode.</t>
+          <t>Taking Off.</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Take off and retry this function.</t>
+          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Take off in P-Mode</t>
+          <t>Tap the screen lightly to focus.</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Taking Off.</t>
+          <t>Tap the screen to focus.</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
+          <t>Tap to choose a valid zone.</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Tap the screen lightly to focus.</t>
+          <t>Target lost. QuickShots stopped</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Tap the screen to focus.</t>
+          <t>The aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Tap to choose a valid zone.</t>
+          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Target lost. QuickShots stopped</t>
+          <t>The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>The aircraft is flying back to the start point</t>
+          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
+          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
+          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
+          <t>Unable to take off</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
+          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
+          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
+          <t>Upward Obstacle Detected</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Unable to take off</t>
+          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
+          <t>Vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>448</v>
+        <v>216</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
+          <t>Vision sensor(s) blocked. Fly with caution</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Upward Obstacle Detected</t>
+          <t>Vision systems and obstacle avoidance disabled</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
+          <t>Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked. Fly with caution</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Vision systems and obstacle avoidance disabled</t>
+          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate. Fly with caution</t>
+          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Warning</t>
+          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>455</v>
+        <v>112</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
+          <t>Warning: Command Failed</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Warning: Command Failed</t>
+          <t>Warning: Command Timeout</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Warning: Command Timeout</t>
+          <t>Warning: Critically low battery. Please change the battery</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery. Please change the battery</t>
+          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>459</v>
+        <v>321</v>
       </c>
     </row>
     <row r="566">
@@ -6248,21 +6248,21 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
+          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
+          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="584">
